--- a/BalanceSheet/MDB_bal.xlsx
+++ b/BalanceSheet/MDB_bal.xlsx
@@ -1027,19 +1027,19 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>473000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>2153000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>-1629000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>219000.0</v>
+        <v>3000000.0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>665000.0</v>
+        <v>3000000.0</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>2124000.0</v>
@@ -1871,19 +1871,19 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>-276000.0</v>
+        <v>0.0</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>60000.0</v>
+        <v>0.0</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>142000.0</v>
+        <v>0.0</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>-290000.0</v>
+        <v>0.0</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>1249000.0</v>
+        <v>0.0</v>
       </c>
       <c r="G23" s="0" t="n">
         <v>114000.0</v>
